--- a/Transformer/result/daqingyoutian_result_CAL.xlsx
+++ b/Transformer/result/daqingyoutian_result_CAL.xlsx
@@ -447,7 +447,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>22.6825008392334</v>
+        <v>22.70264434814453</v>
       </c>
       <c r="B2" t="n">
         <v>22.739</v>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>22.67531204223633</v>
+        <v>22.6625862121582</v>
       </c>
       <c r="B3" t="n">
         <v>22.715</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>22.70076942443848</v>
+        <v>22.66459465026855</v>
       </c>
       <c r="B4" t="n">
         <v>22.715</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22.72821426391602</v>
+        <v>22.70776748657227</v>
       </c>
       <c r="B5" t="n">
         <v>22.744</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>22.74740028381348</v>
+        <v>22.77654838562012</v>
       </c>
       <c r="B6" t="n">
         <v>22.811</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>22.75997161865234</v>
+        <v>22.82854080200195</v>
       </c>
       <c r="B7" t="n">
         <v>22.888</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>22.76822471618652</v>
+        <v>22.86829376220703</v>
       </c>
       <c r="B8" t="n">
         <v>22.933</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>22.77305793762207</v>
+        <v>22.89801216125488</v>
       </c>
       <c r="B9" t="n">
         <v>22.938</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>22.76904296875</v>
+        <v>22.92458343505859</v>
       </c>
       <c r="B10" t="n">
         <v>22.938</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>22.76424598693848</v>
+        <v>22.95682334899902</v>
       </c>
       <c r="B11" t="n">
         <v>22.951</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>22.78161811828613</v>
+        <v>22.98091697692871</v>
       </c>
       <c r="B12" t="n">
         <v>22.952</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>22.81161308288574</v>
+        <v>22.97776222229004</v>
       </c>
       <c r="B13" t="n">
         <v>22.933</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>22.83229446411133</v>
+        <v>22.94975471496582</v>
       </c>
       <c r="B14" t="n">
         <v>22.909</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>22.83217811584473</v>
+        <v>22.8704833984375</v>
       </c>
       <c r="B15" t="n">
         <v>22.869</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>22.79314613342285</v>
+        <v>22.79666519165039</v>
       </c>
       <c r="B16" t="n">
         <v>22.81</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>22.72676467895508</v>
+        <v>22.73554039001465</v>
       </c>
       <c r="B17" t="n">
         <v>22.76</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>22.68664932250977</v>
+        <v>22.72714424133301</v>
       </c>
       <c r="B18" t="n">
         <v>22.763</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>22.6974925994873</v>
+        <v>22.78170967102051</v>
       </c>
       <c r="B19" t="n">
         <v>22.82</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>22.7234935760498</v>
+        <v>22.84339714050293</v>
       </c>
       <c r="B20" t="n">
         <v>22.878</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>22.73597145080566</v>
+        <v>22.84762573242188</v>
       </c>
       <c r="B21" t="n">
         <v>22.902</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>22.71928405761719</v>
+        <v>22.81797218322754</v>
       </c>
       <c r="B22" t="n">
         <v>22.892</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>22.68540573120117</v>
+        <v>22.76889610290527</v>
       </c>
       <c r="B23" t="n">
         <v>22.847</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>22.66918182373047</v>
+        <v>22.7321662902832</v>
       </c>
       <c r="B24" t="n">
         <v>22.792</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>22.68966102600098</v>
+        <v>22.71222686767578</v>
       </c>
       <c r="B25" t="n">
         <v>22.768</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>22.74101829528809</v>
+        <v>22.74176406860352</v>
       </c>
       <c r="B26" t="n">
         <v>22.79</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>22.78261756896973</v>
+        <v>22.73475456237793</v>
       </c>
       <c r="B27" t="n">
         <v>22.836</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>22.78347587585449</v>
+        <v>22.75531578063965</v>
       </c>
       <c r="B28" t="n">
         <v>22.874</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>22.76863670349121</v>
+        <v>22.82348823547363</v>
       </c>
       <c r="B29" t="n">
         <v>22.901</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>22.77095794677734</v>
+        <v>22.89876174926758</v>
       </c>
       <c r="B30" t="n">
         <v>22.919</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>22.80322456359863</v>
+        <v>22.94346618652344</v>
       </c>
       <c r="B31" t="n">
         <v>22.936</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>22.85890579223633</v>
+        <v>22.93853950500488</v>
       </c>
       <c r="B32" t="n">
         <v>22.952</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>22.90499687194824</v>
+        <v>22.92023277282715</v>
       </c>
       <c r="B33" t="n">
         <v>22.947</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>22.89811134338379</v>
+        <v>22.89806747436523</v>
       </c>
       <c r="B34" t="n">
         <v>22.916</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>22.83166885375977</v>
+        <v>22.88495635986328</v>
       </c>
       <c r="B35" t="n">
         <v>22.884</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>22.74668121337891</v>
+        <v>22.87713241577148</v>
       </c>
       <c r="B36" t="n">
         <v>22.881</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>22.67938232421875</v>
+        <v>22.90867233276367</v>
       </c>
       <c r="B37" t="n">
         <v>22.899</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>22.65776062011719</v>
+        <v>22.90425109863281</v>
       </c>
       <c r="B38" t="n">
         <v>22.916</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>22.68890762329102</v>
+        <v>22.91452598571777</v>
       </c>
       <c r="B39" t="n">
         <v>22.93</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>22.75077438354492</v>
+        <v>22.90521812438965</v>
       </c>
       <c r="B40" t="n">
         <v>22.94</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>22.81005859375</v>
+        <v>22.90721893310547</v>
       </c>
       <c r="B41" t="n">
         <v>22.941</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>22.84230613708496</v>
+        <v>22.89817237854004</v>
       </c>
       <c r="B42" t="n">
         <v>22.94</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>22.85954284667969</v>
+        <v>22.91376113891602</v>
       </c>
       <c r="B43" t="n">
         <v>22.949</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>22.87302780151367</v>
+        <v>22.92095756530762</v>
       </c>
       <c r="B44" t="n">
         <v>22.965</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>22.87167358398438</v>
+        <v>22.9419002532959</v>
       </c>
       <c r="B45" t="n">
         <v>22.973</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>22.8494758605957</v>
+        <v>22.94868278503418</v>
       </c>
       <c r="B46" t="n">
         <v>22.968</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>22.82353210449219</v>
+        <v>22.97707748413086</v>
       </c>
       <c r="B47" t="n">
         <v>22.96</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>22.82233238220215</v>
+        <v>22.99154472351074</v>
       </c>
       <c r="B48" t="n">
         <v>22.965</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>22.86100387573242</v>
+        <v>22.97556114196777</v>
       </c>
       <c r="B49" t="n">
         <v>22.986</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>22.93047332763672</v>
+        <v>22.98811912536621</v>
       </c>
       <c r="B50" t="n">
         <v>23.019</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>22.99742889404297</v>
+        <v>23.02464485168457</v>
       </c>
       <c r="B51" t="n">
         <v>23.052</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>23.01743316650391</v>
+        <v>23.0547981262207</v>
       </c>
       <c r="B52" t="n">
         <v>23.069</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>22.96440505981445</v>
+        <v>23.05868721008301</v>
       </c>
       <c r="B53" t="n">
         <v>23.071</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>22.86728286743164</v>
+        <v>23.0080451965332</v>
       </c>
       <c r="B54" t="n">
         <v>23.062</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>22.80081748962402</v>
+        <v>22.95151138305664</v>
       </c>
       <c r="B55" t="n">
         <v>23.039</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>22.80036163330078</v>
+        <v>22.94004821777344</v>
       </c>
       <c r="B56" t="n">
         <v>23.006</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>22.83815002441406</v>
+        <v>22.95020866394043</v>
       </c>
       <c r="B57" t="n">
         <v>22.985</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>22.86927223205566</v>
+        <v>22.96075630187988</v>
       </c>
       <c r="B58" t="n">
         <v>22.977</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>22.85713005065918</v>
+        <v>22.9898624420166</v>
       </c>
       <c r="B59" t="n">
         <v>22.977</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>22.81201362609863</v>
+        <v>23.00176620483398</v>
       </c>
       <c r="B60" t="n">
         <v>22.987</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>22.76777839660645</v>
+        <v>22.97939491271973</v>
       </c>
       <c r="B61" t="n">
         <v>22.999</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>22.75976181030273</v>
+        <v>22.95764350891113</v>
       </c>
       <c r="B62" t="n">
         <v>23.012</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>22.78700828552246</v>
+        <v>22.96807289123535</v>
       </c>
       <c r="B63" t="n">
         <v>23.022</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>22.82370567321777</v>
+        <v>22.97144317626953</v>
       </c>
       <c r="B64" t="n">
         <v>23.024</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>22.84228897094727</v>
+        <v>22.99957656860352</v>
       </c>
       <c r="B65" t="n">
         <v>23.021</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>22.84528923034668</v>
+        <v>23.0096263885498</v>
       </c>
       <c r="B66" t="n">
         <v>23.028</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>22.86013221740723</v>
+        <v>22.99517440795898</v>
       </c>
       <c r="B67" t="n">
         <v>23.024</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>22.87599754333496</v>
+        <v>22.92153549194336</v>
       </c>
       <c r="B68" t="n">
         <v>23.001</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>22.84990882873535</v>
+        <v>22.81020355224609</v>
       </c>
       <c r="B69" t="n">
         <v>22.848</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>22.75336456298828</v>
+        <v>22.63925361633301</v>
       </c>
       <c r="B70" t="n">
         <v>22.68</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>22.62157249450684</v>
+        <v>22.4727725982666</v>
       </c>
       <c r="B71" t="n">
         <v>22.505</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>22.5095157623291</v>
+        <v>22.32251167297363</v>
       </c>
       <c r="B72" t="n">
         <v>22.328</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>22.45590782165527</v>
+        <v>22.16897392272949</v>
       </c>
       <c r="B73" t="n">
         <v>22.155</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>22.46345710754395</v>
+        <v>22.05048561096191</v>
       </c>
       <c r="B74" t="n">
         <v>21.996</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>22.4830207824707</v>
+        <v>21.93776893615723</v>
       </c>
       <c r="B75" t="n">
         <v>21.815</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>22.47099876403809</v>
+        <v>21.8826789855957</v>
       </c>
       <c r="B76" t="n">
         <v>21.846</v>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>22.40049362182617</v>
+        <v>21.86681365966797</v>
       </c>
       <c r="B77" t="n">
         <v>21.881</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>22.30177688598633</v>
+        <v>21.87865829467773</v>
       </c>
       <c r="B78" t="n">
         <v>21.919</v>
@@ -1063,7 +1063,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>22.23110389709473</v>
+        <v>21.92146110534668</v>
       </c>
       <c r="B79" t="n">
         <v>21.957</v>
@@ -1071,7 +1071,7 @@
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>22.23155403137207</v>
+        <v>21.97287750244141</v>
       </c>
       <c r="B80" t="n">
         <v>21.994</v>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>22.31141090393066</v>
+        <v>21.99653625488281</v>
       </c>
       <c r="B81" t="n">
         <v>22.028</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>22.41515922546387</v>
+        <v>21.98800468444824</v>
       </c>
       <c r="B82" t="n">
         <v>22.04</v>
@@ -1095,7 +1095,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>22.48237800598145</v>
+        <v>21.99847412109375</v>
       </c>
       <c r="B83" t="n">
         <v>22.022</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>22.48048973083496</v>
+        <v>22.0170783996582</v>
       </c>
       <c r="B84" t="n">
         <v>21.995</v>
@@ -1111,7 +1111,7 @@
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>22.44402313232422</v>
+        <v>22.07530975341797</v>
       </c>
       <c r="B85" t="n">
         <v>22.001</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>22.44994735717773</v>
+        <v>22.11161422729492</v>
       </c>
       <c r="B86" t="n">
         <v>22.06</v>
@@ -1127,7 +1127,7 @@
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>22.51421928405762</v>
+        <v>22.10085678100586</v>
       </c>
       <c r="B87" t="n">
         <v>22.131</v>
@@ -1135,7 +1135,7 @@
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>22.57397651672363</v>
+        <v>22.05798721313477</v>
       </c>
       <c r="B88" t="n">
         <v>22.135</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>22.5495719909668</v>
+        <v>22.00827407836914</v>
       </c>
       <c r="B89" t="n">
         <v>22.053</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>22.44167709350586</v>
+        <v>21.97360610961914</v>
       </c>
       <c r="B90" t="n">
         <v>21.954</v>
@@ -1159,7 +1159,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>22.33506202697754</v>
+        <v>21.97102355957031</v>
       </c>
       <c r="B91" t="n">
         <v>21.907</v>
@@ -1167,7 +1167,7 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>22.32011032104492</v>
+        <v>21.97025299072266</v>
       </c>
       <c r="B92" t="n">
         <v>21.911</v>
@@ -1175,7 +1175,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>22.39358901977539</v>
+        <v>21.93596649169922</v>
       </c>
       <c r="B93" t="n">
         <v>21.922</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>22.48691177368164</v>
+        <v>21.94542121887207</v>
       </c>
       <c r="B94" t="n">
         <v>21.921</v>
@@ -1191,7 +1191,7 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>22.54675102233887</v>
+        <v>21.9810962677002</v>
       </c>
       <c r="B95" t="n">
         <v>21.963</v>
@@ -1199,7 +1199,7 @@
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>22.56954956054688</v>
+        <v>22.06319427490234</v>
       </c>
       <c r="B96" t="n">
         <v>21.993</v>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>22.58198928833008</v>
+        <v>22.18423080444336</v>
       </c>
       <c r="B97" t="n">
         <v>22.14</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>22.60017967224121</v>
+        <v>22.32544708251953</v>
       </c>
       <c r="B98" t="n">
         <v>22.296</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>22.59073257446289</v>
+        <v>22.49453926086426</v>
       </c>
       <c r="B99" t="n">
         <v>22.457</v>
@@ -1231,7 +1231,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>22.56506156921387</v>
+        <v>22.64887428283691</v>
       </c>
       <c r="B100" t="n">
         <v>22.616</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>22.57706451416016</v>
+        <v>22.76388931274414</v>
       </c>
       <c r="B101" t="n">
         <v>22.766</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>22.65641212463379</v>
+        <v>22.86812591552734</v>
       </c>
       <c r="B102" t="n">
         <v>22.911</v>
@@ -1255,7 +1255,7 @@
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>22.78271293640137</v>
+        <v>22.98226165771484</v>
       </c>
       <c r="B103" t="n">
         <v>23.079</v>
@@ -1263,7 +1263,7 @@
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>22.89310646057129</v>
+        <v>23.09198760986328</v>
       </c>
       <c r="B104" t="n">
         <v>23.074</v>
@@ -1271,7 +1271,7 @@
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>22.94233131408691</v>
+        <v>23.14986419677734</v>
       </c>
       <c r="B105" t="n">
         <v>23.091</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>22.94061279296875</v>
+        <v>23.1240348815918</v>
       </c>
       <c r="B106" t="n">
         <v>23.125</v>
@@ -1287,7 +1287,7 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>22.91547203063965</v>
+        <v>23.04975509643555</v>
       </c>
       <c r="B107" t="n">
         <v>23.107</v>
@@ -1295,7 +1295,7 @@
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>22.87890434265137</v>
+        <v>22.94670104980469</v>
       </c>
       <c r="B108" t="n">
         <v>23.019</v>
@@ -1303,7 +1303,7 @@
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>22.83209991455078</v>
+        <v>22.84557723999023</v>
       </c>
       <c r="B109" t="n">
         <v>22.893</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>22.7641716003418</v>
+        <v>22.78789138793945</v>
       </c>
       <c r="B110" t="n">
         <v>22.801</v>
@@ -1319,7 +1319,7 @@
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>22.68786239624023</v>
+        <v>22.79051399230957</v>
       </c>
       <c r="B111" t="n">
         <v>22.783</v>
@@ -1327,7 +1327,7 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>22.61743927001953</v>
+        <v>22.83350944519043</v>
       </c>
       <c r="B112" t="n">
         <v>22.823</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>22.54828453063965</v>
+        <v>22.89651489257812</v>
       </c>
       <c r="B113" t="n">
         <v>22.896</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>22.49143600463867</v>
+        <v>22.96474075317383</v>
       </c>
       <c r="B114" t="n">
         <v>22.963</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>22.47830200195312</v>
+        <v>23.00160598754883</v>
       </c>
       <c r="B115" t="n">
         <v>23.009</v>
@@ -1359,7 +1359,7 @@
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>22.50332450866699</v>
+        <v>22.99994087219238</v>
       </c>
       <c r="B116" t="n">
         <v>23.04</v>
@@ -1367,7 +1367,7 @@
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>22.54452896118164</v>
+        <v>22.98219871520996</v>
       </c>
       <c r="B117" t="n">
         <v>23.045</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>22.59055519104004</v>
+        <v>22.95636177062988</v>
       </c>
       <c r="B118" t="n">
         <v>23.03</v>
@@ -1383,7 +1383,7 @@
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>22.62548828125</v>
+        <v>22.94696235656738</v>
       </c>
       <c r="B119" t="n">
         <v>23.022</v>
@@ -1391,7 +1391,7 @@
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>22.63863563537598</v>
+        <v>22.9205436706543</v>
       </c>
       <c r="B120" t="n">
         <v>23.015</v>
@@ -1399,7 +1399,7 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>22.63239860534668</v>
+        <v>22.93329048156738</v>
       </c>
       <c r="B121" t="n">
         <v>23.001</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>22.63083076477051</v>
+        <v>22.93851470947266</v>
       </c>
       <c r="B122" t="n">
         <v>22.994</v>
@@ -1415,7 +1415,7 @@
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>22.62103080749512</v>
+        <v>22.96767997741699</v>
       </c>
       <c r="B123" t="n">
         <v>23.002</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>22.59531402587891</v>
+        <v>22.95323753356934</v>
       </c>
       <c r="B124" t="n">
         <v>23</v>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>22.57986259460449</v>
+        <v>22.91428184509277</v>
       </c>
       <c r="B125" t="n">
         <v>22.951</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>22.57713890075684</v>
+        <v>22.85168075561523</v>
       </c>
       <c r="B126" t="n">
         <v>22.858</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>22.57666015625</v>
+        <v>22.7900333404541</v>
       </c>
       <c r="B127" t="n">
         <v>22.77</v>
@@ -1455,7 +1455,7 @@
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>22.56694221496582</v>
+        <v>22.69048500061035</v>
       </c>
       <c r="B128" t="n">
         <v>22.719</v>
@@ -1463,7 +1463,7 @@
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>22.5222282409668</v>
+        <v>22.61503601074219</v>
       </c>
       <c r="B129" t="n">
         <v>22.7</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>22.43095016479492</v>
+        <v>22.56364631652832</v>
       </c>
       <c r="B130" t="n">
         <v>22.692</v>
@@ -1479,7 +1479,7 @@
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>22.34576034545898</v>
+        <v>22.59816360473633</v>
       </c>
       <c r="B131" t="n">
         <v>22.693</v>
@@ -1487,7 +1487,7 @@
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>22.30438613891602</v>
+        <v>22.63278770446777</v>
       </c>
       <c r="B132" t="n">
         <v>22.688</v>
@@ -1495,7 +1495,7 @@
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>22.29189682006836</v>
+        <v>22.69287109375</v>
       </c>
       <c r="B133" t="n">
         <v>22.674</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>22.29144096374512</v>
+        <v>22.70836067199707</v>
       </c>
       <c r="B134" t="n">
         <v>22.675</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>22.31858825683594</v>
+        <v>22.7464656829834</v>
       </c>
       <c r="B135" t="n">
         <v>22.708</v>
@@ -1519,7 +1519,7 @@
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>22.36984443664551</v>
+        <v>22.80075454711914</v>
       </c>
       <c r="B136" t="n">
         <v>22.77</v>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>22.43081855773926</v>
+        <v>22.85616111755371</v>
       </c>
       <c r="B137" t="n">
         <v>22.837</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>22.48761367797852</v>
+        <v>22.8985538482666</v>
       </c>
       <c r="B138" t="n">
         <v>22.893</v>
@@ -1543,7 +1543,7 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>22.52902221679688</v>
+        <v>22.91995620727539</v>
       </c>
       <c r="B139" t="n">
         <v>22.934</v>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>22.57005500793457</v>
+        <v>22.94219207763672</v>
       </c>
       <c r="B140" t="n">
         <v>22.949</v>
@@ -1559,7 +1559,7 @@
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>22.63991355895996</v>
+        <v>22.92298316955566</v>
       </c>
       <c r="B141" t="n">
         <v>22.942</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>22.73637008666992</v>
+        <v>22.89239311218262</v>
       </c>
       <c r="B142" t="n">
         <v>22.923</v>
@@ -1575,7 +1575,7 @@
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>22.81013488769531</v>
+        <v>22.8576774597168</v>
       </c>
       <c r="B143" t="n">
         <v>22.895</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>22.8253002166748</v>
+        <v>22.84510803222656</v>
       </c>
       <c r="B144" t="n">
         <v>22.866</v>
@@ -1591,7 +1591,7 @@
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>22.79229164123535</v>
+        <v>22.85381698608398</v>
       </c>
       <c r="B145" t="n">
         <v>22.858</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>22.76041984558105</v>
+        <v>22.89570045471191</v>
       </c>
       <c r="B146" t="n">
         <v>22.884</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>22.78622817993164</v>
+        <v>22.95637321472168</v>
       </c>
       <c r="B147" t="n">
         <v>22.933</v>
@@ -1615,7 +1615,7 @@
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>22.87110900878906</v>
+        <v>22.99642944335938</v>
       </c>
       <c r="B148" t="n">
         <v>22.999</v>
@@ -1623,7 +1623,7 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>22.94998550415039</v>
+        <v>23.03680992126465</v>
       </c>
       <c r="B149" t="n">
         <v>23.049</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>22.96989631652832</v>
+        <v>23.03151512145996</v>
       </c>
       <c r="B150" t="n">
         <v>23.05</v>
@@ -1639,7 +1639,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>22.92486572265625</v>
+        <v>22.96773719787598</v>
       </c>
       <c r="B151" t="n">
         <v>23.01</v>
@@ -1647,7 +1647,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>22.82254600524902</v>
+        <v>22.89447021484375</v>
       </c>
       <c r="B152" t="n">
         <v>22.949</v>
@@ -1655,7 +1655,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>22.68173027038574</v>
+        <v>22.82847023010254</v>
       </c>
       <c r="B153" t="n">
         <v>22.888</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>22.55465888977051</v>
+        <v>22.7986011505127</v>
       </c>
       <c r="B154" t="n">
         <v>22.848</v>
@@ -1671,7 +1671,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>22.49467468261719</v>
+        <v>22.8000545501709</v>
       </c>
       <c r="B155" t="n">
         <v>22.838</v>
@@ -1679,7 +1679,7 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>22.50963973999023</v>
+        <v>22.7945384979248</v>
       </c>
       <c r="B156" t="n">
         <v>22.844</v>
@@ -1687,7 +1687,7 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>22.56157302856445</v>
+        <v>22.771240234375</v>
       </c>
       <c r="B157" t="n">
         <v>22.837</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>22.62380981445312</v>
+        <v>22.73712348937988</v>
       </c>
       <c r="B158" t="n">
         <v>22.804</v>
@@ -1703,7 +1703,7 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>22.67410850524902</v>
+        <v>22.73027420043945</v>
       </c>
       <c r="B159" t="n">
         <v>22.758</v>
@@ -1711,7 +1711,7 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>22.68827819824219</v>
+        <v>22.71127700805664</v>
       </c>
       <c r="B160" t="n">
         <v>22.726</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>22.6651668548584</v>
+        <v>22.71537017822266</v>
       </c>
       <c r="B161" t="n">
         <v>22.714</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>22.59836387634277</v>
+        <v>22.76055145263672</v>
       </c>
       <c r="B162" t="n">
         <v>22.734</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>22.49053955078125</v>
+        <v>22.81802749633789</v>
       </c>
       <c r="B163" t="n">
         <v>22.799</v>
@@ -1743,7 +1743,7 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>22.39639663696289</v>
+        <v>22.86868858337402</v>
       </c>
       <c r="B164" t="n">
         <v>22.88</v>
@@ -1751,7 +1751,7 @@
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>22.38768005371094</v>
+        <v>22.89285087585449</v>
       </c>
       <c r="B165" t="n">
         <v>22.933</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>22.46785926818848</v>
+        <v>22.83842086791992</v>
       </c>
       <c r="B166" t="n">
         <v>22.917</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>22.55140686035156</v>
+        <v>22.77336692810059</v>
       </c>
       <c r="B167" t="n">
         <v>22.835</v>
@@ -1775,7 +1775,7 @@
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>22.56675148010254</v>
+        <v>22.72732353210449</v>
       </c>
       <c r="B168" t="n">
         <v>22.753</v>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>22.5128002166748</v>
+        <v>22.7520866394043</v>
       </c>
       <c r="B169" t="n">
         <v>22.749</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>22.44646644592285</v>
+        <v>22.75356101989746</v>
       </c>
       <c r="B170" t="n">
         <v>22.808</v>
@@ -1799,7 +1799,7 @@
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>22.44066429138184</v>
+        <v>22.75772857666016</v>
       </c>
       <c r="B171" t="n">
         <v>22.852</v>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>22.51984405517578</v>
+        <v>22.76994514465332</v>
       </c>
       <c r="B172" t="n">
         <v>22.851</v>
@@ -1815,7 +1815,7 @@
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>22.61566543579102</v>
+        <v>22.77546119689941</v>
       </c>
       <c r="B173" t="n">
         <v>22.811</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>22.65760040283203</v>
+        <v>22.80975914001465</v>
       </c>
       <c r="B174" t="n">
         <v>22.781</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>22.63078498840332</v>
+        <v>22.84577369689941</v>
       </c>
       <c r="B175" t="n">
         <v>22.817</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>22.57417869567871</v>
+        <v>22.91137886047363</v>
       </c>
       <c r="B176" t="n">
         <v>22.9</v>
@@ -1847,7 +1847,7 @@
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>22.54463386535645</v>
+        <v>22.97831153869629</v>
       </c>
       <c r="B177" t="n">
         <v>22.986</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>22.58248710632324</v>
+        <v>23.05259132385254</v>
       </c>
       <c r="B178" t="n">
         <v>23.046</v>
@@ -1863,7 +1863,7 @@
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>22.70700645446777</v>
+        <v>23.10037422180176</v>
       </c>
       <c r="B179" t="n">
         <v>23.079</v>
@@ -1871,7 +1871,7 @@
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>22.89412498474121</v>
+        <v>23.14339447021484</v>
       </c>
       <c r="B180" t="n">
         <v>23.103</v>
@@ -1879,7 +1879,7 @@
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>23.05905151367188</v>
+        <v>23.1635856628418</v>
       </c>
       <c r="B181" t="n">
         <v>23.121</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>23.10686874389648</v>
+        <v>23.17339897155762</v>
       </c>
       <c r="B182" t="n">
         <v>23.128</v>
@@ -1895,7 +1895,7 @@
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>22.99605560302734</v>
+        <v>23.16701316833496</v>
       </c>
       <c r="B183" t="n">
         <v>23.129</v>
@@ -1903,7 +1903,7 @@
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>22.79193496704102</v>
+        <v>23.14754486083984</v>
       </c>
       <c r="B184" t="n">
         <v>23.129</v>
@@ -1911,7 +1911,7 @@
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>22.61855125427246</v>
+        <v>23.12274169921875</v>
       </c>
       <c r="B185" t="n">
         <v>23.13</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>22.5571231842041</v>
+        <v>23.09415817260742</v>
       </c>
       <c r="B186" t="n">
         <v>23.135</v>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>22.5828800201416</v>
+        <v>23.08153533935547</v>
       </c>
       <c r="B187" t="n">
         <v>23.147</v>
@@ -1935,7 +1935,7 @@
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>22.63458061218262</v>
+        <v>23.08479499816895</v>
       </c>
       <c r="B188" t="n">
         <v>23.161</v>
@@ -1943,7 +1943,7 @@
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>22.67319107055664</v>
+        <v>23.07607078552246</v>
       </c>
       <c r="B189" t="n">
         <v>23.165</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>22.70318222045898</v>
+        <v>23.09534645080566</v>
       </c>
       <c r="B190" t="n">
         <v>23.163</v>
@@ -1959,7 +1959,7 @@
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>22.75492858886719</v>
+        <v>23.1159496307373</v>
       </c>
       <c r="B191" t="n">
         <v>23.155</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>22.82408332824707</v>
+        <v>23.13129806518555</v>
       </c>
       <c r="B192" t="n">
         <v>23.14</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>22.87716865539551</v>
+        <v>23.11335182189941</v>
       </c>
       <c r="B193" t="n">
         <v>23.121</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>22.88713455200195</v>
+        <v>23.07414436340332</v>
       </c>
       <c r="B194" t="n">
         <v>23.101</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>22.83867835998535</v>
+        <v>23.01943016052246</v>
       </c>
       <c r="B195" t="n">
         <v>23.077</v>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>22.73312950134277</v>
+        <v>22.97168159484863</v>
       </c>
       <c r="B196" t="n">
         <v>23.044</v>
@@ -2007,7 +2007,7 @@
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>22.59883308410645</v>
+        <v>22.95872688293457</v>
       </c>
       <c r="B197" t="n">
         <v>23.018</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>22.47571182250977</v>
+        <v>22.94883346557617</v>
       </c>
       <c r="B198" t="n">
         <v>22.997</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>22.40606689453125</v>
+        <v>22.94651222229004</v>
       </c>
       <c r="B199" t="n">
         <v>22.998</v>
@@ -2031,7 +2031,7 @@
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>22.4310302734375</v>
+        <v>22.94952964782715</v>
       </c>
       <c r="B200" t="n">
         <v>23.028</v>
@@ -2039,7 +2039,7 @@
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>22.53183555603027</v>
+        <v>22.95321655273438</v>
       </c>
       <c r="B201" t="n">
         <v>23.034</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>22.63636589050293</v>
+        <v>22.95321655273438</v>
       </c>
       <c r="B202" t="n">
         <v>23.003</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>22.66748046875</v>
+        <v>22.94727325439453</v>
       </c>
       <c r="B203" t="n">
         <v>22.982</v>
@@ -2063,7 +2063,7 @@
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>22.60816383361816</v>
+        <v>22.91080093383789</v>
       </c>
       <c r="B204" t="n">
         <v>23.003</v>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>22.52194213867188</v>
+        <v>22.84829902648926</v>
       </c>
       <c r="B205" t="n">
         <v>23.051</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="206">
       <c r="A206" t="n">
-        <v>22.49180793762207</v>
+        <v>22.77726745605469</v>
       </c>
       <c r="B206" t="n">
         <v>23.085</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="207">
       <c r="A207" t="n">
-        <v>22.53317260742188</v>
+        <v>22.71832084655762</v>
       </c>
       <c r="B207" t="n">
         <v>23.084</v>
@@ -2095,7 +2095,7 @@
     </row>
     <row r="208">
       <c r="A208" t="n">
-        <v>22.60414695739746</v>
+        <v>22.68367004394531</v>
       </c>
       <c r="B208" t="n">
         <v>23.066</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="209">
       <c r="A209" t="n">
-        <v>22.66891479492188</v>
+        <v>22.68107223510742</v>
       </c>
       <c r="B209" t="n">
         <v>23.061</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="210">
       <c r="A210" t="n">
-        <v>22.7036190032959</v>
+        <v>22.71621131896973</v>
       </c>
       <c r="B210" t="n">
         <v>23.067</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="211">
       <c r="A211" t="n">
-        <v>22.70086479187012</v>
+        <v>22.78850364685059</v>
       </c>
       <c r="B211" t="n">
         <v>23.063</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="212">
       <c r="A212" t="n">
-        <v>22.66858291625977</v>
+        <v>22.8864917755127</v>
       </c>
       <c r="B212" t="n">
         <v>23.05</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="213">
       <c r="A213" t="n">
-        <v>22.62187576293945</v>
+        <v>22.98408317565918</v>
       </c>
       <c r="B213" t="n">
         <v>23.044</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="214">
       <c r="A214" t="n">
-        <v>22.59142303466797</v>
+        <v>23.05269432067871</v>
       </c>
       <c r="B214" t="n">
         <v>23.034</v>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="215">
       <c r="A215" t="n">
-        <v>22.59549903869629</v>
+        <v>23.07259941101074</v>
       </c>
       <c r="B215" t="n">
         <v>23.012</v>
@@ -2159,7 +2159,7 @@
     </row>
     <row r="216">
       <c r="A216" t="n">
-        <v>22.63503456115723</v>
+        <v>23.04875373840332</v>
       </c>
       <c r="B216" t="n">
         <v>23.005</v>
@@ -2167,7 +2167,7 @@
     </row>
     <row r="217">
       <c r="A217" t="n">
-        <v>22.67129516601562</v>
+        <v>23.00727653503418</v>
       </c>
       <c r="B217" t="n">
         <v>23.01</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="218">
       <c r="A218" t="n">
-        <v>22.64697456359863</v>
+        <v>22.97077560424805</v>
       </c>
       <c r="B218" t="n">
         <v>23.016</v>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="219">
       <c r="A219" t="n">
-        <v>22.52265548706055</v>
+        <v>22.94516181945801</v>
       </c>
       <c r="B219" t="n">
         <v>23.023</v>
@@ -2191,7 +2191,7 @@
     </row>
     <row r="220">
       <c r="A220" t="n">
-        <v>22.3269100189209</v>
+        <v>22.92754745483398</v>
       </c>
       <c r="B220" t="n">
         <v>23.019</v>
@@ -2199,7 +2199,7 @@
     </row>
     <row r="221">
       <c r="A221" t="n">
-        <v>22.14702606201172</v>
+        <v>22.91244125366211</v>
       </c>
       <c r="B221" t="n">
         <v>23.004</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="222">
       <c r="A222" t="n">
-        <v>22.05533790588379</v>
+        <v>22.90146446228027</v>
       </c>
       <c r="B222" t="n">
         <v>22.987</v>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="223">
       <c r="A223" t="n">
-        <v>22.08897399902344</v>
+        <v>22.90137672424316</v>
       </c>
       <c r="B223" t="n">
         <v>22.973</v>
@@ -2223,7 +2223,7 @@
     </row>
     <row r="224">
       <c r="A224" t="n">
-        <v>22.22637748718262</v>
+        <v>22.91685485839844</v>
       </c>
       <c r="B224" t="n">
         <v>22.964</v>
@@ -2231,7 +2231,7 @@
     </row>
     <row r="225">
       <c r="A225" t="n">
-        <v>22.38477516174316</v>
+        <v>22.95312881469727</v>
       </c>
       <c r="B225" t="n">
         <v>22.969</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="226">
       <c r="A226" t="n">
-        <v>22.49015617370605</v>
+        <v>23.01120185852051</v>
       </c>
       <c r="B226" t="n">
         <v>22.985</v>
@@ -2247,7 +2247,7 @@
     </row>
     <row r="227">
       <c r="A227" t="n">
-        <v>22.54307174682617</v>
+        <v>23.08568382263184</v>
       </c>
       <c r="B227" t="n">
         <v>22.997</v>
@@ -2255,7 +2255,7 @@
     </row>
     <row r="228">
       <c r="A228" t="n">
-        <v>22.55756759643555</v>
+        <v>23.15840148925781</v>
       </c>
       <c r="B228" t="n">
         <v>23.008</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="229">
       <c r="A229" t="n">
-        <v>22.53037071228027</v>
+        <v>23.20952415466309</v>
       </c>
       <c r="B229" t="n">
         <v>23.013</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="230">
       <c r="A230" t="n">
-        <v>22.49361991882324</v>
+        <v>23.22242164611816</v>
       </c>
       <c r="B230" t="n">
         <v>23.008</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="231">
       <c r="A231" t="n">
-        <v>22.47458839416504</v>
+        <v>23.18907165527344</v>
       </c>
       <c r="B231" t="n">
         <v>22.993</v>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="232">
       <c r="A232" t="n">
-        <v>22.48722076416016</v>
+        <v>23.10743141174316</v>
       </c>
       <c r="B232" t="n">
         <v>22.97</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="233">
       <c r="A233" t="n">
-        <v>22.49088478088379</v>
+        <v>22.99007797241211</v>
       </c>
       <c r="B233" t="n">
         <v>22.959</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="234">
       <c r="A234" t="n">
-        <v>22.43344306945801</v>
+        <v>22.86635971069336</v>
       </c>
       <c r="B234" t="n">
         <v>22.967</v>
@@ -2311,7 +2311,7 @@
     </row>
     <row r="235">
       <c r="A235" t="n">
-        <v>22.33620262145996</v>
+        <v>22.78243255615234</v>
       </c>
       <c r="B235" t="n">
         <v>22.984</v>
@@ -2319,7 +2319,7 @@
     </row>
     <row r="236">
       <c r="A236" t="n">
-        <v>22.26243209838867</v>
+        <v>22.7674732208252</v>
       </c>
       <c r="B236" t="n">
         <v>22.99</v>
@@ -2327,7 +2327,7 @@
     </row>
     <row r="237">
       <c r="A237" t="n">
-        <v>22.25926971435547</v>
+        <v>22.82111740112305</v>
       </c>
       <c r="B237" t="n">
         <v>22.979</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="238">
       <c r="A238" t="n">
-        <v>22.31964683532715</v>
+        <v>22.91907691955566</v>
       </c>
       <c r="B238" t="n">
         <v>22.97</v>
@@ -2343,7 +2343,7 @@
     </row>
     <row r="239">
       <c r="A239" t="n">
-        <v>22.39132499694824</v>
+        <v>23.02645111083984</v>
       </c>
       <c r="B239" t="n">
         <v>22.977</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="240">
       <c r="A240" t="n">
-        <v>22.42448234558105</v>
+        <v>23.11366844177246</v>
       </c>
       <c r="B240" t="n">
         <v>22.991</v>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="241">
       <c r="A241" t="n">
-        <v>22.41613006591797</v>
+        <v>23.17134666442871</v>
       </c>
       <c r="B241" t="n">
         <v>23.013</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="242">
       <c r="A242" t="n">
-        <v>22.41018295288086</v>
+        <v>23.20866394042969</v>
       </c>
       <c r="B242" t="n">
         <v>23.029</v>
@@ -2375,7 +2375,7 @@
     </row>
     <row r="243">
       <c r="A243" t="n">
-        <v>22.44569969177246</v>
+        <v>23.22769737243652</v>
       </c>
       <c r="B243" t="n">
         <v>23.036</v>
@@ -2383,7 +2383,7 @@
     </row>
     <row r="244">
       <c r="A244" t="n">
-        <v>22.49464225769043</v>
+        <v>23.22638893127441</v>
       </c>
       <c r="B244" t="n">
         <v>23.039</v>
@@ -2391,7 +2391,7 @@
     </row>
     <row r="245">
       <c r="A245" t="n">
-        <v>22.50210952758789</v>
+        <v>23.20774078369141</v>
       </c>
       <c r="B245" t="n">
         <v>23.05</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="246">
       <c r="A246" t="n">
-        <v>22.47134399414062</v>
+        <v>23.17603874206543</v>
       </c>
       <c r="B246" t="n">
         <v>23.076</v>
@@ -2407,7 +2407,7 @@
     </row>
     <row r="247">
       <c r="A247" t="n">
-        <v>22.42532920837402</v>
+        <v>23.13996124267578</v>
       </c>
       <c r="B247" t="n">
         <v>23.093</v>
@@ -2415,7 +2415,7 @@
     </row>
     <row r="248">
       <c r="A248" t="n">
-        <v>22.36105346679688</v>
+        <v>23.0967845916748</v>
       </c>
       <c r="B248" t="n">
         <v>23.098</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="249">
       <c r="A249" t="n">
-        <v>22.28799247741699</v>
+        <v>23.02622032165527</v>
       </c>
       <c r="B249" t="n">
         <v>23.107</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="250">
       <c r="A250" t="n">
-        <v>22.21849060058594</v>
+        <v>22.92910385131836</v>
       </c>
       <c r="B250" t="n">
         <v>23.12</v>
@@ -2439,7 +2439,7 @@
     </row>
     <row r="251">
       <c r="A251" t="n">
-        <v>22.17531394958496</v>
+        <v>22.83717346191406</v>
       </c>
       <c r="B251" t="n">
         <v>23.131</v>
@@ -2447,7 +2447,7 @@
     </row>
     <row r="252">
       <c r="A252" t="n">
-        <v>22.19275665283203</v>
+        <v>22.7893180847168</v>
       </c>
       <c r="B252" t="n">
         <v>23.139</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="253">
       <c r="A253" t="n">
-        <v>22.28360366821289</v>
+        <v>22.81042098999023</v>
       </c>
       <c r="B253" t="n">
         <v>23.141</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="254">
       <c r="A254" t="n">
-        <v>22.41590309143066</v>
+        <v>22.89110946655273</v>
       </c>
       <c r="B254" t="n">
         <v>23.143</v>
@@ -2471,7 +2471,7 @@
     </row>
     <row r="255">
       <c r="A255" t="n">
-        <v>22.55282211303711</v>
+        <v>22.99623680114746</v>
       </c>
       <c r="B255" t="n">
         <v>23.143</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="256">
       <c r="A256" t="n">
-        <v>22.68997955322266</v>
+        <v>23.09523582458496</v>
       </c>
       <c r="B256" t="n">
         <v>23.143</v>
@@ -2487,7 +2487,7 @@
     </row>
     <row r="257">
       <c r="A257" t="n">
-        <v>22.80277824401855</v>
+        <v>23.1710147857666</v>
       </c>
       <c r="B257" t="n">
         <v>23.148</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="258">
       <c r="A258" t="n">
-        <v>22.88701629638672</v>
+        <v>23.21600532531738</v>
       </c>
       <c r="B258" t="n">
         <v>23.158</v>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="259">
       <c r="A259" t="n">
-        <v>22.93776321411133</v>
+        <v>23.23047256469727</v>
       </c>
       <c r="B259" t="n">
         <v>23.163</v>
@@ -2511,7 +2511,7 @@
     </row>
     <row r="260">
       <c r="A260" t="n">
-        <v>22.96730995178223</v>
+        <v>23.2270622253418</v>
       </c>
       <c r="B260" t="n">
         <v>23.138</v>
@@ -2519,7 +2519,7 @@
     </row>
     <row r="261">
       <c r="A261" t="n">
-        <v>22.99337196350098</v>
+        <v>23.21404457092285</v>
       </c>
       <c r="B261" t="n">
         <v>23.062</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="262">
       <c r="A262" t="n">
-        <v>23.02220916748047</v>
+        <v>23.19680786132812</v>
       </c>
       <c r="B262" t="n">
         <v>22.966</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="263">
       <c r="A263" t="n">
-        <v>23.03644752502441</v>
+        <v>23.1734447479248</v>
       </c>
       <c r="B263" t="n">
         <v>22.899</v>
@@ -2543,7 +2543,7 @@
     </row>
     <row r="264">
       <c r="A264" t="n">
-        <v>23.02352523803711</v>
+        <v>23.1375846862793</v>
       </c>
       <c r="B264" t="n">
         <v>22.88</v>
@@ -2551,7 +2551,7 @@
     </row>
     <row r="265">
       <c r="A265" t="n">
-        <v>22.98779678344727</v>
+        <v>23.08048629760742</v>
       </c>
       <c r="B265" t="n">
         <v>22.896</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="266">
       <c r="A266" t="n">
-        <v>22.92328834533691</v>
+        <v>23.00543022155762</v>
       </c>
       <c r="B266" t="n">
         <v>22.914</v>
@@ -2567,7 +2567,7 @@
     </row>
     <row r="267">
       <c r="A267" t="n">
-        <v>22.84238433837891</v>
+        <v>22.92472457885742</v>
       </c>
       <c r="B267" t="n">
         <v>22.917</v>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="268">
       <c r="A268" t="n">
-        <v>22.77416229248047</v>
+        <v>22.84892654418945</v>
       </c>
       <c r="B268" t="n">
         <v>22.919</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="269">
       <c r="A269" t="n">
-        <v>22.72772789001465</v>
+        <v>22.78897285461426</v>
       </c>
       <c r="B269" t="n">
         <v>22.932</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="270">
       <c r="A270" t="n">
-        <v>22.6914119720459</v>
+        <v>22.74832916259766</v>
       </c>
       <c r="B270" t="n">
         <v>22.953</v>
@@ -2599,7 +2599,7 @@
     </row>
     <row r="271">
       <c r="A271" t="n">
-        <v>22.64811897277832</v>
+        <v>22.72106742858887</v>
       </c>
       <c r="B271" t="n">
         <v>22.972</v>
@@ -2607,7 +2607,7 @@
     </row>
     <row r="272">
       <c r="A272" t="n">
-        <v>22.62155532836914</v>
+        <v>22.71058082580566</v>
       </c>
       <c r="B272" t="n">
         <v>22.98</v>
@@ -2615,7 +2615,7 @@
     </row>
     <row r="273">
       <c r="A273" t="n">
-        <v>22.65210151672363</v>
+        <v>22.72319984436035</v>
       </c>
       <c r="B273" t="n">
         <v>22.974</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="274">
       <c r="A274" t="n">
-        <v>22.74387168884277</v>
+        <v>22.75320053100586</v>
       </c>
       <c r="B274" t="n">
         <v>22.962</v>
@@ -2631,7 +2631,7 @@
     </row>
     <row r="275">
       <c r="A275" t="n">
-        <v>22.85041427612305</v>
+        <v>22.79670906066895</v>
       </c>
       <c r="B275" t="n">
         <v>22.945</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="276">
       <c r="A276" t="n">
-        <v>22.91567230224609</v>
+        <v>22.8623161315918</v>
       </c>
       <c r="B276" t="n">
         <v>22.925</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="277">
       <c r="A277" t="n">
-        <v>22.89287185668945</v>
+        <v>22.95628547668457</v>
       </c>
       <c r="B277" t="n">
         <v>22.914</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="278">
       <c r="A278" t="n">
-        <v>22.78842163085938</v>
+        <v>23.04530906677246</v>
       </c>
       <c r="B278" t="n">
         <v>22.915</v>
@@ -2663,7 +2663,7 @@
     </row>
     <row r="279">
       <c r="A279" t="n">
-        <v>22.67356109619141</v>
+        <v>23.08234024047852</v>
       </c>
       <c r="B279" t="n">
         <v>22.922</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="280">
       <c r="A280" t="n">
-        <v>22.62939071655273</v>
+        <v>23.05315780639648</v>
       </c>
       <c r="B280" t="n">
         <v>22.916</v>
@@ -2679,7 +2679,7 @@
     </row>
     <row r="281">
       <c r="A281" t="n">
-        <v>22.69355583190918</v>
+        <v>22.97784423828125</v>
       </c>
       <c r="B281" t="n">
         <v>22.895</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="282">
       <c r="A282" t="n">
-        <v>22.82892799377441</v>
+        <v>22.89645767211914</v>
       </c>
       <c r="B282" t="n">
         <v>22.868</v>
@@ -2695,7 +2695,7 @@
     </row>
     <row r="283">
       <c r="A283" t="n">
-        <v>22.95096588134766</v>
+        <v>22.8371467590332</v>
       </c>
       <c r="B283" t="n">
         <v>22.847</v>
@@ -2703,7 +2703,7 @@
     </row>
     <row r="284">
       <c r="A284" t="n">
-        <v>23.00209808349609</v>
+        <v>22.81203460693359</v>
       </c>
       <c r="B284" t="n">
         <v>22.844</v>
@@ -2711,7 +2711,7 @@
     </row>
     <row r="285">
       <c r="A285" t="n">
-        <v>22.97245597839355</v>
+        <v>22.82928085327148</v>
       </c>
       <c r="B285" t="n">
         <v>22.863</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="286">
       <c r="A286" t="n">
-        <v>22.89094543457031</v>
+        <v>22.89618301391602</v>
       </c>
       <c r="B286" t="n">
         <v>22.902</v>
@@ -2727,7 +2727,7 @@
     </row>
     <row r="287">
       <c r="A287" t="n">
-        <v>22.81560325622559</v>
+        <v>22.99376487731934</v>
       </c>
       <c r="B287" t="n">
         <v>22.946</v>
@@ -2735,7 +2735,7 @@
     </row>
     <row r="288">
       <c r="A288" t="n">
-        <v>22.775634765625</v>
+        <v>23.08784866333008</v>
       </c>
       <c r="B288" t="n">
         <v>22.972</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="289">
       <c r="A289" t="n">
-        <v>22.79981422424316</v>
+        <v>23.15762901306152</v>
       </c>
       <c r="B289" t="n">
         <v>22.964</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="290">
       <c r="A290" t="n">
-        <v>22.90492248535156</v>
+        <v>23.16852760314941</v>
       </c>
       <c r="B290" t="n">
         <v>22.924</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="291">
       <c r="A291" t="n">
-        <v>23.01938629150391</v>
+        <v>23.09645652770996</v>
       </c>
       <c r="B291" t="n">
         <v>22.881</v>
@@ -2767,7 +2767,7 @@
     </row>
     <row r="292">
       <c r="A292" t="n">
-        <v>23.05620574951172</v>
+        <v>22.97320175170898</v>
       </c>
       <c r="B292" t="n">
         <v>22.848</v>
@@ -2775,7 +2775,7 @@
     </row>
     <row r="293">
       <c r="A293" t="n">
-        <v>22.99546813964844</v>
+        <v>22.84830284118652</v>
       </c>
       <c r="B293" t="n">
         <v>22.816</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="294">
       <c r="A294" t="n">
-        <v>22.89740180969238</v>
+        <v>22.76338958740234</v>
       </c>
       <c r="B294" t="n">
         <v>22.783</v>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="295">
       <c r="A295" t="n">
-        <v>22.8564510345459</v>
+        <v>22.73973083496094</v>
       </c>
       <c r="B295" t="n">
         <v>22.756</v>
@@ -2799,7 +2799,7 @@
     </row>
     <row r="296">
       <c r="A296" t="n">
-        <v>22.89608001708984</v>
+        <v>22.77339744567871</v>
       </c>
       <c r="B296" t="n">
         <v>22.752</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="297">
       <c r="A297" t="n">
-        <v>22.95955657958984</v>
+        <v>22.84796905517578</v>
       </c>
       <c r="B297" t="n">
         <v>22.779</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="298">
       <c r="A298" t="n">
-        <v>22.96983528137207</v>
+        <v>22.93732643127441</v>
       </c>
       <c r="B298" t="n">
         <v>22.814</v>
@@ -2823,7 +2823,7 @@
     </row>
     <row r="299">
       <c r="A299" t="n">
-        <v>22.92087936401367</v>
+        <v>23.01795387268066</v>
       </c>
       <c r="B299" t="n">
         <v>22.833</v>
@@ -2831,7 +2831,7 @@
     </row>
     <row r="300">
       <c r="A300" t="n">
-        <v>22.8563060760498</v>
+        <v>23.07823944091797</v>
       </c>
       <c r="B300" t="n">
         <v>22.842</v>
@@ -2839,7 +2839,7 @@
     </row>
     <row r="301">
       <c r="A301" t="n">
-        <v>22.80650520324707</v>
+        <v>23.10852241516113</v>
       </c>
       <c r="B301" t="n">
         <v>22.884</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="302">
       <c r="A302" t="n">
-        <v>22.76813125610352</v>
+        <v>23.11286735534668</v>
       </c>
       <c r="B302" t="n">
         <v>22.949</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="303">
       <c r="A303" t="n">
-        <v>22.71115112304688</v>
+        <v>23.10550689697266</v>
       </c>
       <c r="B303" t="n">
         <v>23.003</v>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="304">
       <c r="A304" t="n">
-        <v>22.62458038330078</v>
+        <v>23.08658409118652</v>
       </c>
       <c r="B304" t="n">
         <v>23.034</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="305">
       <c r="A305" t="n">
-        <v>22.53706741333008</v>
+        <v>23.04142951965332</v>
       </c>
       <c r="B305" t="n">
         <v>23.031</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="306">
       <c r="A306" t="n">
-        <v>22.4959716796875</v>
+        <v>22.97260856628418</v>
       </c>
       <c r="B306" t="n">
         <v>23.015</v>
@@ -2887,7 +2887,7 @@
     </row>
     <row r="307">
       <c r="A307" t="n">
-        <v>22.52524185180664</v>
+        <v>22.91261291503906</v>
       </c>
       <c r="B307" t="n">
         <v>23.001</v>
@@ -2895,7 +2895,7 @@
     </row>
     <row r="308">
       <c r="A308" t="n">
-        <v>22.5950927734375</v>
+        <v>22.89653968811035</v>
       </c>
       <c r="B308" t="n">
         <v>22.982</v>
@@ -2903,7 +2903,7 @@
     </row>
     <row r="309">
       <c r="A309" t="n">
-        <v>22.65818405151367</v>
+        <v>22.9307975769043</v>
       </c>
       <c r="B309" t="n">
         <v>22.965</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="310">
       <c r="A310" t="n">
-        <v>22.70225143432617</v>
+        <v>22.98072052001953</v>
       </c>
       <c r="B310" t="n">
         <v>22.954</v>
@@ -2919,7 +2919,7 @@
     </row>
     <row r="311">
       <c r="A311" t="n">
-        <v>22.74121856689453</v>
+        <v>23.00207328796387</v>
       </c>
       <c r="B311" t="n">
         <v>22.929</v>
@@ -2927,7 +2927,7 @@
     </row>
     <row r="312">
       <c r="A312" t="n">
-        <v>22.76628684997559</v>
+        <v>22.98197364807129</v>
       </c>
       <c r="B312" t="n">
         <v>22.884</v>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="313">
       <c r="A313" t="n">
-        <v>22.74750900268555</v>
+        <v>22.93324279785156</v>
       </c>
       <c r="B313" t="n">
         <v>22.85</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="314">
       <c r="A314" t="n">
-        <v>22.64869689941406</v>
+        <v>22.86302185058594</v>
       </c>
       <c r="B314" t="n">
         <v>22.852</v>
@@ -2951,7 +2951,7 @@
     </row>
     <row r="315">
       <c r="A315" t="n">
-        <v>22.52365303039551</v>
+        <v>22.76821327209473</v>
       </c>
       <c r="B315" t="n">
         <v>22.872</v>
@@ -2959,7 +2959,7 @@
     </row>
     <row r="316">
       <c r="A316" t="n">
-        <v>22.44193649291992</v>
+        <v>22.67017364501953</v>
       </c>
       <c r="B316" t="n">
         <v>22.887</v>
@@ -2967,7 +2967,7 @@
     </row>
     <row r="317">
       <c r="A317" t="n">
-        <v>22.40412330627441</v>
+        <v>22.5963306427002</v>
       </c>
       <c r="B317" t="n">
         <v>22.896</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="318">
       <c r="A318" t="n">
-        <v>22.39638137817383</v>
+        <v>22.54636383056641</v>
       </c>
       <c r="B318" t="n">
         <v>22.902</v>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="319">
       <c r="A319" t="n">
-        <v>22.38895606994629</v>
+        <v>22.50293159484863</v>
       </c>
       <c r="B319" t="n">
         <v>22.913</v>
@@ -2991,7 +2991,7 @@
     </row>
     <row r="320">
       <c r="A320" t="n">
-        <v>22.37231254577637</v>
+        <v>22.44808197021484</v>
       </c>
       <c r="B320" t="n">
         <v>22.94</v>
@@ -2999,7 +2999,7 @@
     </row>
     <row r="321">
       <c r="A321" t="n">
-        <v>22.34727668762207</v>
+        <v>22.38693428039551</v>
       </c>
       <c r="B321" t="n">
         <v>22.973</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="322">
       <c r="A322" t="n">
-        <v>22.34727668762207</v>
+        <v>22.35362815856934</v>
       </c>
       <c r="B322" t="n">
         <v>22.973</v>
@@ -3015,7 +3015,7 @@
     </row>
     <row r="323">
       <c r="A323" t="n">
-        <v>22.31259155273438</v>
+        <v>22.3587589263916</v>
       </c>
       <c r="B323" t="n">
         <v>22.995</v>
@@ -3023,7 +3023,7 @@
     </row>
     <row r="324">
       <c r="A324" t="n">
-        <v>22.37428855895996</v>
+        <v>22.37946701049805</v>
       </c>
       <c r="B324" t="n">
         <v>23.006</v>
@@ -3031,7 +3031,7 @@
     </row>
     <row r="325">
       <c r="A325" t="n">
-        <v>22.50063323974609</v>
+        <v>22.4222354888916</v>
       </c>
       <c r="B325" t="n">
         <v>23.006</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="326">
       <c r="A326" t="n">
-        <v>22.63185119628906</v>
+        <v>22.49698257446289</v>
       </c>
       <c r="B326" t="n">
         <v>22.983</v>
@@ -3047,7 +3047,7 @@
     </row>
     <row r="327">
       <c r="A327" t="n">
-        <v>22.73678207397461</v>
+        <v>22.57366943359375</v>
       </c>
       <c r="B327" t="n">
         <v>22.941</v>
@@ -3055,7 +3055,7 @@
     </row>
     <row r="328">
       <c r="A328" t="n">
-        <v>22.82076835632324</v>
+        <v>22.63170051574707</v>
       </c>
       <c r="B328" t="n">
         <v>22.894</v>
@@ -3063,7 +3063,7 @@
     </row>
     <row r="329">
       <c r="A329" t="n">
-        <v>22.89924049377441</v>
+        <v>22.66929054260254</v>
       </c>
       <c r="B329" t="n">
         <v>22.846</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="330">
       <c r="A330" t="n">
-        <v>22.97292137145996</v>
+        <v>22.67910003662109</v>
       </c>
       <c r="B330" t="n">
         <v>22.805</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="331">
       <c r="A331" t="n">
-        <v>23.0257453918457</v>
+        <v>22.66642379760742</v>
       </c>
       <c r="B331" t="n">
         <v>22.796</v>
@@ -3087,7 +3087,7 @@
     </row>
     <row r="332">
       <c r="A332" t="n">
-        <v>23.05386924743652</v>
+        <v>22.66065979003906</v>
       </c>
       <c r="B332" t="n">
         <v>22.83</v>
@@ -3095,7 +3095,7 @@
     </row>
     <row r="333">
       <c r="A333" t="n">
-        <v>23.06826019287109</v>
+        <v>22.69655799865723</v>
       </c>
       <c r="B333" t="n">
         <v>22.888</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="334">
       <c r="A334" t="n">
-        <v>23.08502960205078</v>
+        <v>22.77673149108887</v>
       </c>
       <c r="B334" t="n">
         <v>22.949</v>
@@ -3111,7 +3111,7 @@
     </row>
     <row r="335">
       <c r="A335" t="n">
-        <v>23.08195114135742</v>
+        <v>22.86424446105957</v>
       </c>
       <c r="B335" t="n">
         <v>22.995</v>
@@ -3119,7 +3119,7 @@
     </row>
     <row r="336">
       <c r="A336" t="n">
-        <v>23.0511474609375</v>
+        <v>22.93639945983887</v>
       </c>
       <c r="B336" t="n">
         <v>23.019</v>
@@ -3127,7 +3127,7 @@
     </row>
     <row r="337">
       <c r="A337" t="n">
-        <v>22.99244117736816</v>
+        <v>22.99037742614746</v>
       </c>
       <c r="B337" t="n">
         <v>23.034</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="338">
       <c r="A338" t="n">
-        <v>22.88616943359375</v>
+        <v>23.01670455932617</v>
       </c>
       <c r="B338" t="n">
         <v>23.041</v>
@@ -3143,7 +3143,7 @@
     </row>
     <row r="339">
       <c r="A339" t="n">
-        <v>22.75693893432617</v>
+        <v>23.00534439086914</v>
       </c>
       <c r="B339" t="n">
         <v>23.031</v>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="340">
       <c r="A340" t="n">
-        <v>22.67275810241699</v>
+        <v>22.9476432800293</v>
       </c>
       <c r="B340" t="n">
         <v>23.009</v>
@@ -3159,7 +3159,7 @@
     </row>
     <row r="341">
       <c r="A341" t="n">
-        <v>22.66800880432129</v>
+        <v>22.84373092651367</v>
       </c>
       <c r="B341" t="n">
         <v>23.008</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="342">
       <c r="A342" t="n">
-        <v>22.7253303527832</v>
+        <v>22.71057510375977</v>
       </c>
       <c r="B342" t="n">
         <v>23.027</v>
@@ -3175,7 +3175,7 @@
     </row>
     <row r="343">
       <c r="A343" t="n">
-        <v>22.78097915649414</v>
+        <v>22.60006904602051</v>
       </c>
       <c r="B343" t="n">
         <v>23.036</v>
@@ -3183,7 +3183,7 @@
     </row>
     <row r="344">
       <c r="A344" t="n">
-        <v>22.8299674987793</v>
+        <v>22.57340240478516</v>
       </c>
       <c r="B344" t="n">
         <v>23.03</v>
@@ -3191,7 +3191,7 @@
     </row>
     <row r="345">
       <c r="A345" t="n">
-        <v>22.8752326965332</v>
+        <v>22.64095115661621</v>
       </c>
       <c r="B345" t="n">
         <v>23.024</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="346">
       <c r="A346" t="n">
-        <v>22.90163230895996</v>
+        <v>22.76428031921387</v>
       </c>
       <c r="B346" t="n">
         <v>23.039</v>
@@ -3207,7 +3207,7 @@
     </row>
     <row r="347">
       <c r="A347" t="n">
-        <v>22.8852367401123</v>
+        <v>22.89654350280762</v>
       </c>
       <c r="B347" t="n">
         <v>23.07</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="348">
       <c r="A348" t="n">
-        <v>22.83768844604492</v>
+        <v>23.0088062286377</v>
       </c>
       <c r="B348" t="n">
         <v>23.093</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="349">
       <c r="A349" t="n">
-        <v>22.76622772216797</v>
+        <v>23.08399200439453</v>
       </c>
       <c r="B349" t="n">
         <v>23.103</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="350">
       <c r="A350" t="n">
-        <v>22.68574142456055</v>
+        <v>23.1181640625</v>
       </c>
       <c r="B350" t="n">
         <v>23.106</v>
@@ -3239,7 +3239,7 @@
     </row>
     <row r="351">
       <c r="A351" t="n">
-        <v>22.63267707824707</v>
+        <v>23.10961532592773</v>
       </c>
       <c r="B351" t="n">
         <v>23.095</v>
@@ -3247,7 +3247,7 @@
     </row>
     <row r="352">
       <c r="A352" t="n">
-        <v>22.60297775268555</v>
+        <v>23.06107711791992</v>
       </c>
       <c r="B352" t="n">
         <v>23.055</v>
@@ -3255,7 +3255,7 @@
     </row>
     <row r="353">
       <c r="A353" t="n">
-        <v>22.59487152099609</v>
+        <v>22.98517417907715</v>
       </c>
       <c r="B353" t="n">
         <v>22.998</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="354">
       <c r="A354" t="n">
-        <v>22.61907768249512</v>
+        <v>22.89720153808594</v>
       </c>
       <c r="B354" t="n">
         <v>22.965</v>
@@ -3271,7 +3271,7 @@
     </row>
     <row r="355">
       <c r="A355" t="n">
-        <v>22.66134834289551</v>
+        <v>22.81082916259766</v>
       </c>
       <c r="B355" t="n">
         <v>22.978</v>
@@ -3279,7 +3279,7 @@
     </row>
     <row r="356">
       <c r="A356" t="n">
-        <v>22.68707466125488</v>
+        <v>22.73510551452637</v>
       </c>
       <c r="B356" t="n">
         <v>23.007</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="357">
       <c r="A357" t="n">
-        <v>22.71979522705078</v>
+        <v>22.68803024291992</v>
       </c>
       <c r="B357" t="n">
         <v>23.034</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="358">
       <c r="A358" t="n">
-        <v>22.7414493560791</v>
+        <v>22.67752456665039</v>
       </c>
       <c r="B358" t="n">
         <v>23.065</v>
@@ -3303,7 +3303,7 @@
     </row>
     <row r="359">
       <c r="A359" t="n">
-        <v>22.75280380249023</v>
+        <v>22.69801330566406</v>
       </c>
       <c r="B359" t="n">
         <v>23.097</v>
@@ -3311,7 +3311,7 @@
     </row>
     <row r="360">
       <c r="A360" t="n">
-        <v>22.73687934875488</v>
+        <v>22.73477172851562</v>
       </c>
       <c r="B360" t="n">
         <v>23.102</v>
@@ -3319,7 +3319,7 @@
     </row>
     <row r="361">
       <c r="A361" t="n">
-        <v>22.72768783569336</v>
+        <v>22.76398849487305</v>
       </c>
       <c r="B361" t="n">
         <v>23.067</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="362">
       <c r="A362" t="n">
-        <v>22.72161102294922</v>
+        <v>22.76190185546875</v>
       </c>
       <c r="B362" t="n">
         <v>23.027</v>
@@ -3335,7 +3335,7 @@
     </row>
     <row r="363">
       <c r="A363" t="n">
-        <v>22.72519493103027</v>
+        <v>22.72689056396484</v>
       </c>
       <c r="B363" t="n">
         <v>23.011</v>
@@ -3343,7 +3343,7 @@
     </row>
     <row r="364">
       <c r="A364" t="n">
-        <v>22.70854949951172</v>
+        <v>22.6834659576416</v>
       </c>
       <c r="B364" t="n">
         <v>23.004</v>
@@ -3351,7 +3351,7 @@
     </row>
     <row r="365">
       <c r="A365" t="n">
-        <v>22.66371726989746</v>
+        <v>22.66788864135742</v>
       </c>
       <c r="B365" t="n">
         <v>22.974</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="366">
       <c r="A366" t="n">
-        <v>22.56795120239258</v>
+        <v>22.68948173522949</v>
       </c>
       <c r="B366" t="n">
         <v>22.929</v>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="367">
       <c r="A367" t="n">
-        <v>22.44540023803711</v>
+        <v>22.71752548217773</v>
       </c>
       <c r="B367" t="n">
         <v>22.904</v>
@@ -3375,7 +3375,7 @@
     </row>
     <row r="368">
       <c r="A368" t="n">
-        <v>22.34877014160156</v>
+        <v>22.73760414123535</v>
       </c>
       <c r="B368" t="n">
         <v>22.911</v>
@@ -3383,7 +3383,7 @@
     </row>
     <row r="369">
       <c r="A369" t="n">
-        <v>22.31760215759277</v>
+        <v>22.7552490234375</v>
       </c>
       <c r="B369" t="n">
         <v>22.931</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="370">
       <c r="A370" t="n">
-        <v>22.37795257568359</v>
+        <v>22.77230834960938</v>
       </c>
       <c r="B370" t="n">
         <v>22.942</v>
@@ -3399,7 +3399,7 @@
     </row>
     <row r="371">
       <c r="A371" t="n">
-        <v>22.48163795471191</v>
+        <v>22.79373931884766</v>
       </c>
       <c r="B371" t="n">
         <v>22.937</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="372">
       <c r="A372" t="n">
-        <v>22.5737419128418</v>
+        <v>22.81083679199219</v>
       </c>
       <c r="B372" t="n">
         <v>22.935</v>
@@ -3415,7 +3415,7 @@
     </row>
     <row r="373">
       <c r="A373" t="n">
-        <v>22.62171936035156</v>
+        <v>22.81630706787109</v>
       </c>
       <c r="B373" t="n">
         <v>22.948</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="374">
       <c r="A374" t="n">
-        <v>22.63664245605469</v>
+        <v>22.79977798461914</v>
       </c>
       <c r="B374" t="n">
         <v>22.957</v>
@@ -3431,7 +3431,7 @@
     </row>
     <row r="375">
       <c r="A375" t="n">
-        <v>22.63128089904785</v>
+        <v>22.73838233947754</v>
       </c>
       <c r="B375" t="n">
         <v>22.946</v>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="376">
       <c r="A376" t="n">
-        <v>22.63604545593262</v>
+        <v>22.6253547668457</v>
       </c>
       <c r="B376" t="n">
         <v>22.92</v>
@@ -3447,7 +3447,7 @@
     </row>
     <row r="377">
       <c r="A377" t="n">
-        <v>22.65762329101562</v>
+        <v>22.48974227905273</v>
       </c>
       <c r="B377" t="n">
         <v>22.897</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="378">
       <c r="A378" t="n">
-        <v>22.69751167297363</v>
+        <v>22.38427734375</v>
       </c>
       <c r="B378" t="n">
         <v>22.893</v>
@@ -3463,7 +3463,7 @@
     </row>
     <row r="379">
       <c r="A379" t="n">
-        <v>22.73316192626953</v>
+        <v>22.34491348266602</v>
       </c>
       <c r="B379" t="n">
         <v>22.89</v>
@@ -3471,7 +3471,7 @@
     </row>
     <row r="380">
       <c r="A380" t="n">
-        <v>22.7244701385498</v>
+        <v>22.37052726745605</v>
       </c>
       <c r="B380" t="n">
         <v>22.862</v>
@@ -3479,7 +3479,7 @@
     </row>
     <row r="381">
       <c r="A381" t="n">
-        <v>22.72467994689941</v>
+        <v>22.44388198852539</v>
       </c>
       <c r="B381" t="n">
         <v>22.833</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="382">
       <c r="A382" t="n">
-        <v>22.67867279052734</v>
+        <v>22.53872871398926</v>
       </c>
       <c r="B382" t="n">
         <v>22.827</v>
@@ -3495,7 +3495,7 @@
     </row>
     <row r="383">
       <c r="A383" t="n">
-        <v>22.61046981811523</v>
+        <v>22.62166404724121</v>
       </c>
       <c r="B383" t="n">
         <v>22.856</v>
@@ -3503,7 +3503,7 @@
     </row>
     <row r="384">
       <c r="A384" t="n">
-        <v>22.50803375244141</v>
+        <v>22.67889976501465</v>
       </c>
       <c r="B384" t="n">
         <v>22.897</v>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="385">
       <c r="A385" t="n">
-        <v>22.3850040435791</v>
+        <v>22.7236270904541</v>
       </c>
       <c r="B385" t="n">
         <v>22.913</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="386">
       <c r="A386" t="n">
-        <v>22.27692604064941</v>
+        <v>22.77739524841309</v>
       </c>
       <c r="B386" t="n">
         <v>22.907</v>
@@ -3527,7 +3527,7 @@
     </row>
     <row r="387">
       <c r="A387" t="n">
-        <v>22.21353912353516</v>
+        <v>22.85402679443359</v>
       </c>
       <c r="B387" t="n">
         <v>22.894</v>
@@ -3535,7 +3535,7 @@
     </row>
     <row r="388">
       <c r="A388" t="n">
-        <v>22.19783020019531</v>
+        <v>22.94336700439453</v>
       </c>
       <c r="B388" t="n">
         <v>22.872</v>
@@ -3543,7 +3543,7 @@
     </row>
     <row r="389">
       <c r="A389" t="n">
-        <v>22.2055778503418</v>
+        <v>23.00753402709961</v>
       </c>
       <c r="B389" t="n">
         <v>22.837</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="390">
       <c r="A390" t="n">
-        <v>22.24373245239258</v>
+        <v>22.99944496154785</v>
       </c>
       <c r="B390" t="n">
         <v>22.792</v>
@@ -3559,7 +3559,7 @@
     </row>
     <row r="391">
       <c r="A391" t="n">
-        <v>22.26207160949707</v>
+        <v>22.90492630004883</v>
       </c>
       <c r="B391" t="n">
         <v>22.761</v>
@@ -3567,7 +3567,7 @@
     </row>
     <row r="392">
       <c r="A392" t="n">
-        <v>22.26475143432617</v>
+        <v>22.7475528717041</v>
       </c>
       <c r="B392" t="n">
         <v>22.766</v>
@@ -3575,7 +3575,7 @@
     </row>
     <row r="393">
       <c r="A393" t="n">
-        <v>22.22523498535156</v>
+        <v>22.57555198669434</v>
       </c>
       <c r="B393" t="n">
         <v>22.791</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="394">
       <c r="A394" t="n">
-        <v>22.14749336242676</v>
+        <v>22.45964241027832</v>
       </c>
       <c r="B394" t="n">
         <v>22.797</v>
@@ -3591,7 +3591,7 @@
     </row>
     <row r="395">
       <c r="A395" t="n">
-        <v>22.0834846496582</v>
+        <v>22.45101165771484</v>
       </c>
       <c r="B395" t="n">
         <v>22.785</v>
@@ -3599,7 +3599,7 @@
     </row>
     <row r="396">
       <c r="A396" t="n">
-        <v>22.07756042480469</v>
+        <v>22.54008483886719</v>
       </c>
       <c r="B396" t="n">
         <v>22.785</v>
@@ -3607,7 +3607,7 @@
     </row>
     <row r="397">
       <c r="A397" t="n">
-        <v>22.14147758483887</v>
+        <v>22.67237854003906</v>
       </c>
       <c r="B397" t="n">
         <v>22.809</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="398">
       <c r="A398" t="n">
-        <v>22.2270450592041</v>
+        <v>22.79248428344727</v>
       </c>
       <c r="B398" t="n">
         <v>22.851</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="399">
       <c r="A399" t="n">
-        <v>22.28645324707031</v>
+        <v>22.86105728149414</v>
       </c>
       <c r="B399" t="n">
         <v>22.882</v>
@@ -3631,7 +3631,7 @@
     </row>
     <row r="400">
       <c r="A400" t="n">
-        <v>22.30076217651367</v>
+        <v>22.87064743041992</v>
       </c>
       <c r="B400" t="n">
         <v>22.888</v>
@@ -3639,7 +3639,7 @@
     </row>
     <row r="401">
       <c r="A401" t="n">
-        <v>22.28360176086426</v>
+        <v>22.85025405883789</v>
       </c>
       <c r="B401" t="n">
         <v>22.889</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="402">
       <c r="A402" t="n">
-        <v>22.24770736694336</v>
+        <v>22.83455848693848</v>
       </c>
       <c r="B402" t="n">
         <v>22.9</v>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="403">
       <c r="A403" t="n">
-        <v>22.28696250915527</v>
+        <v>22.83755874633789</v>
       </c>
       <c r="B403" t="n">
         <v>22.925</v>
@@ -3663,7 +3663,7 @@
     </row>
     <row r="404">
       <c r="A404" t="n">
-        <v>22.35666465759277</v>
+        <v>22.84633636474609</v>
       </c>
       <c r="B404" t="n">
         <v>22.947</v>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="405">
       <c r="A405" t="n">
-        <v>22.41021728515625</v>
+        <v>22.84206771850586</v>
       </c>
       <c r="B405" t="n">
         <v>22.964</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="406">
       <c r="A406" t="n">
-        <v>22.42146492004395</v>
+        <v>22.81773376464844</v>
       </c>
       <c r="B406" t="n">
         <v>22.979</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="407">
       <c r="A407" t="n">
-        <v>22.39950370788574</v>
+        <v>22.76469802856445</v>
       </c>
       <c r="B407" t="n">
         <v>22.979</v>
@@ -3695,7 +3695,7 @@
     </row>
     <row r="408">
       <c r="A408" t="n">
-        <v>22.37492179870605</v>
+        <v>22.69341468811035</v>
       </c>
       <c r="B408" t="n">
         <v>22.968</v>
@@ -3703,7 +3703,7 @@
     </row>
     <row r="409">
       <c r="A409" t="n">
-        <v>22.37887191772461</v>
+        <v>22.63846778869629</v>
       </c>
       <c r="B409" t="n">
         <v>22.943</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="410">
       <c r="A410" t="n">
-        <v>22.42527770996094</v>
+        <v>22.62980079650879</v>
       </c>
       <c r="B410" t="n">
         <v>22.909</v>
@@ -3719,7 +3719,7 @@
     </row>
     <row r="411">
       <c r="A411" t="n">
-        <v>22.52438163757324</v>
+        <v>22.68012428283691</v>
       </c>
       <c r="B411" t="n">
         <v>22.892</v>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="412">
       <c r="A412" t="n">
-        <v>22.63116455078125</v>
+        <v>22.76653671264648</v>
       </c>
       <c r="B412" t="n">
         <v>22.902</v>
@@ -3735,7 +3735,7 @@
     </row>
     <row r="413">
       <c r="A413" t="n">
-        <v>22.72249984741211</v>
+        <v>22.8572998046875</v>
       </c>
       <c r="B413" t="n">
         <v>22.928</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="414">
       <c r="A414" t="n">
-        <v>22.78803825378418</v>
+        <v>22.94352149963379</v>
       </c>
       <c r="B414" t="n">
         <v>22.939</v>
@@ -3751,7 +3751,7 @@
     </row>
     <row r="415">
       <c r="A415" t="n">
-        <v>22.82478523254395</v>
+        <v>23.02078628540039</v>
       </c>
       <c r="B415" t="n">
         <v>22.931</v>
@@ -3759,7 +3759,7 @@
     </row>
     <row r="416">
       <c r="A416" t="n">
-        <v>22.87272071838379</v>
+        <v>23.0721378326416</v>
       </c>
       <c r="B416" t="n">
         <v>22.944</v>
@@ -3767,7 +3767,7 @@
     </row>
     <row r="417">
       <c r="A417" t="n">
-        <v>22.91514015197754</v>
+        <v>23.0894775390625</v>
       </c>
       <c r="B417" t="n">
         <v>22.985</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="418">
       <c r="A418" t="n">
-        <v>22.94032287597656</v>
+        <v>23.07567596435547</v>
       </c>
       <c r="B418" t="n">
         <v>23.025</v>
@@ -3783,7 +3783,7 @@
     </row>
     <row r="419">
       <c r="A419" t="n">
-        <v>22.94224166870117</v>
+        <v>23.03873062133789</v>
       </c>
       <c r="B419" t="n">
         <v>23.049</v>
@@ -3791,7 +3791,7 @@
     </row>
     <row r="420">
       <c r="A420" t="n">
-        <v>22.91069412231445</v>
+        <v>22.98628044128418</v>
       </c>
       <c r="B420" t="n">
         <v>23.042</v>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="421">
       <c r="A421" t="n">
-        <v>22.86635780334473</v>
+        <v>22.92454528808594</v>
       </c>
       <c r="B421" t="n">
         <v>23.021</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="422">
       <c r="A422" t="n">
-        <v>22.83680725097656</v>
+        <v>22.86063766479492</v>
       </c>
       <c r="B422" t="n">
         <v>23.013</v>
@@ -3815,7 +3815,7 @@
     </row>
     <row r="423">
       <c r="A423" t="n">
-        <v>22.82918930053711</v>
+        <v>22.8049259185791</v>
       </c>
       <c r="B423" t="n">
         <v>23.013</v>
@@ -3823,7 +3823,7 @@
     </row>
     <row r="424">
       <c r="A424" t="n">
-        <v>22.81713676452637</v>
+        <v>22.76692390441895</v>
       </c>
       <c r="B424" t="n">
         <v>23.007</v>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="425">
       <c r="A425" t="n">
-        <v>22.79670333862305</v>
+        <v>22.73934555053711</v>
       </c>
       <c r="B425" t="n">
         <v>22.985</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="426">
       <c r="A426" t="n">
-        <v>22.76998901367188</v>
+        <v>22.70841217041016</v>
       </c>
       <c r="B426" t="n">
         <v>22.955</v>
@@ -3847,7 +3847,7 @@
     </row>
     <row r="427">
       <c r="A427" t="n">
-        <v>22.77541923522949</v>
+        <v>22.66676330566406</v>
       </c>
       <c r="B427" t="n">
         <v>22.949</v>
@@ -3855,7 +3855,7 @@
     </row>
     <row r="428">
       <c r="A428" t="n">
-        <v>22.80779838562012</v>
+        <v>22.61835861206055</v>
       </c>
       <c r="B428" t="n">
         <v>22.97</v>
@@ -3863,7 +3863,7 @@
     </row>
     <row r="429">
       <c r="A429" t="n">
-        <v>22.84235382080078</v>
+        <v>22.57756042480469</v>
       </c>
       <c r="B429" t="n">
         <v>22.989</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="430">
       <c r="A430" t="n">
-        <v>22.85551643371582</v>
+        <v>22.56560897827148</v>
       </c>
       <c r="B430" t="n">
         <v>23.008</v>
@@ -3879,7 +3879,7 @@
     </row>
     <row r="431">
       <c r="A431" t="n">
-        <v>22.85396575927734</v>
+        <v>22.58869934082031</v>
       </c>
       <c r="B431" t="n">
         <v>23.035</v>
@@ -3887,7 +3887,7 @@
     </row>
     <row r="432">
       <c r="A432" t="n">
-        <v>22.82904434204102</v>
+        <v>22.62998390197754</v>
       </c>
       <c r="B432" t="n">
         <v>23.061</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="433">
       <c r="A433" t="n">
-        <v>22.79380416870117</v>
+        <v>22.66585350036621</v>
       </c>
       <c r="B433" t="n">
         <v>23.082</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="434">
       <c r="A434" t="n">
-        <v>22.7439136505127</v>
+        <v>22.67790603637695</v>
       </c>
       <c r="B434" t="n">
         <v>23.091</v>
@@ -3911,7 +3911,7 @@
     </row>
     <row r="435">
       <c r="A435" t="n">
-        <v>22.69093894958496</v>
+        <v>22.66036415100098</v>
       </c>
       <c r="B435" t="n">
         <v>23.092</v>
@@ -3919,7 +3919,7 @@
     </row>
     <row r="436">
       <c r="A436" t="n">
-        <v>22.61294555664062</v>
+        <v>22.61482048034668</v>
       </c>
       <c r="B436" t="n">
         <v>23.081</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="437">
       <c r="A437" t="n">
-        <v>22.52660369873047</v>
+        <v>22.55123329162598</v>
       </c>
       <c r="B437" t="n">
         <v>23.071</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="438">
       <c r="A438" t="n">
-        <v>22.46414566040039</v>
+        <v>22.47634315490723</v>
       </c>
       <c r="B438" t="n">
         <v>23.083</v>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="439">
       <c r="A439" t="n">
-        <v>22.45428276062012</v>
+        <v>22.40479850769043</v>
       </c>
       <c r="B439" t="n">
         <v>23.107</v>
@@ -3951,7 +3951,7 @@
     </row>
     <row r="440">
       <c r="A440" t="n">
-        <v>22.47763061523438</v>
+        <v>22.36447525024414</v>
       </c>
       <c r="B440" t="n">
         <v>23.126</v>
@@ -3959,7 +3959,7 @@
     </row>
     <row r="441">
       <c r="A441" t="n">
-        <v>22.49999237060547</v>
+        <v>22.37326812744141</v>
       </c>
       <c r="B441" t="n">
         <v>23.133</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="442">
       <c r="A442" t="n">
-        <v>22.49630546569824</v>
+        <v>22.42371559143066</v>
       </c>
       <c r="B442" t="n">
         <v>23.137</v>
@@ -3975,7 +3975,7 @@
     </row>
     <row r="443">
       <c r="A443" t="n">
-        <v>22.45062446594238</v>
+        <v>22.5001220703125</v>
       </c>
       <c r="B443" t="n">
         <v>23.14</v>
@@ -3983,7 +3983,7 @@
     </row>
     <row r="444">
       <c r="A444" t="n">
-        <v>22.39582061767578</v>
+        <v>22.59458160400391</v>
       </c>
       <c r="B444" t="n">
         <v>23.136</v>
@@ -3991,7 +3991,7 @@
     </row>
     <row r="445">
       <c r="A445" t="n">
-        <v>22.36628913879395</v>
+        <v>22.67999267578125</v>
       </c>
       <c r="B445" t="n">
         <v>23.113</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="446">
       <c r="A446" t="n">
-        <v>22.39241027832031</v>
+        <v>22.73373222351074</v>
       </c>
       <c r="B446" t="n">
         <v>23.071</v>
@@ -4007,7 +4007,7 @@
     </row>
     <row r="447">
       <c r="A447" t="n">
-        <v>22.44857788085938</v>
+        <v>22.76518249511719</v>
       </c>
       <c r="B447" t="n">
         <v>23.035</v>
@@ -4015,7 +4015,7 @@
     </row>
     <row r="448">
       <c r="A448" t="n">
-        <v>22.49965858459473</v>
+        <v>22.79253959655762</v>
       </c>
       <c r="B448" t="n">
         <v>23.023</v>
@@ -4023,7 +4023,7 @@
     </row>
     <row r="449">
       <c r="A449" t="n">
-        <v>22.52606010437012</v>
+        <v>22.82264137268066</v>
       </c>
       <c r="B449" t="n">
         <v>23.017</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="450">
       <c r="A450" t="n">
-        <v>22.54055023193359</v>
+        <v>22.85160636901855</v>
       </c>
       <c r="B450" t="n">
         <v>23.003</v>
@@ -4039,7 +4039,7 @@
     </row>
     <row r="451">
       <c r="A451" t="n">
-        <v>22.53896713256836</v>
+        <v>22.86946105957031</v>
       </c>
       <c r="B451" t="n">
         <v>22.992</v>
@@ -4047,7 +4047,7 @@
     </row>
     <row r="452">
       <c r="A452" t="n">
-        <v>22.49635696411133</v>
+        <v>22.8803882598877</v>
       </c>
       <c r="B452" t="n">
         <v>22.986</v>
@@ -4055,7 +4055,7 @@
     </row>
     <row r="453">
       <c r="A453" t="n">
-        <v>22.43998908996582</v>
+        <v>22.89026641845703</v>
       </c>
       <c r="B453" t="n">
         <v>22.957</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="454">
       <c r="A454" t="n">
-        <v>22.40150260925293</v>
+        <v>22.90312194824219</v>
       </c>
       <c r="B454" t="n">
         <v>22.895</v>
@@ -4071,7 +4071,7 @@
     </row>
     <row r="455">
       <c r="A455" t="n">
-        <v>22.39283752441406</v>
+        <v>22.91955184936523</v>
       </c>
       <c r="B455" t="n">
         <v>22.829</v>
@@ -4079,7 +4079,7 @@
     </row>
     <row r="456">
       <c r="A456" t="n">
-        <v>22.42485427856445</v>
+        <v>22.92889595031738</v>
       </c>
       <c r="B456" t="n">
         <v>22.782</v>
@@ -4087,7 +4087,7 @@
     </row>
     <row r="457">
       <c r="A457" t="n">
-        <v>22.46498680114746</v>
+        <v>22.92158889770508</v>
       </c>
       <c r="B457" t="n">
         <v>22.756</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="458">
       <c r="A458" t="n">
-        <v>22.50277709960938</v>
+        <v>22.87960624694824</v>
       </c>
       <c r="B458" t="n">
         <v>22.741</v>
@@ -4103,7 +4103,7 @@
     </row>
     <row r="459">
       <c r="A459" t="n">
-        <v>22.54902076721191</v>
+        <v>22.81058692932129</v>
       </c>
       <c r="B459" t="n">
         <v>22.737</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="460">
       <c r="A460" t="n">
-        <v>22.57180976867676</v>
+        <v>22.72363471984863</v>
       </c>
       <c r="B460" t="n">
         <v>22.747</v>
@@ -4119,7 +4119,7 @@
     </row>
     <row r="461">
       <c r="A461" t="n">
-        <v>22.57170486450195</v>
+        <v>22.63106155395508</v>
       </c>
       <c r="B461" t="n">
         <v>22.756</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="462">
       <c r="A462" t="n">
-        <v>22.57857513427734</v>
+        <v>22.561279296875</v>
       </c>
       <c r="B462" t="n">
         <v>22.755</v>
@@ -4135,7 +4135,7 @@
     </row>
     <row r="463">
       <c r="A463" t="n">
-        <v>22.61153030395508</v>
+        <v>22.54546546936035</v>
       </c>
       <c r="B463" t="n">
         <v>22.772</v>
@@ -4143,7 +4143,7 @@
     </row>
     <row r="464">
       <c r="A464" t="n">
-        <v>22.65824890136719</v>
+        <v>22.59655380249023</v>
       </c>
       <c r="B464" t="n">
         <v>22.817</v>
@@ -4151,7 +4151,7 @@
     </row>
     <row r="465">
       <c r="A465" t="n">
-        <v>22.68496513366699</v>
+        <v>22.68965339660645</v>
       </c>
       <c r="B465" t="n">
         <v>22.849</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="466">
       <c r="A466" t="n">
-        <v>22.67830085754395</v>
+        <v>22.7810173034668</v>
       </c>
       <c r="B466" t="n">
         <v>22.853</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="467">
       <c r="A467" t="n">
-        <v>22.62436103820801</v>
+        <v>22.83981704711914</v>
       </c>
       <c r="B467" t="n">
         <v>22.849</v>
@@ -4175,7 +4175,7 @@
     </row>
     <row r="468">
       <c r="A468" t="n">
-        <v>22.56500625610352</v>
+        <v>22.84353637695312</v>
       </c>
       <c r="B468" t="n">
         <v>22.843</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="469">
       <c r="A469" t="n">
-        <v>22.51967239379883</v>
+        <v>22.7891674041748</v>
       </c>
       <c r="B469" t="n">
         <v>22.811</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="470">
       <c r="A470" t="n">
-        <v>22.50546836853027</v>
+        <v>22.68733978271484</v>
       </c>
       <c r="B470" t="n">
         <v>22.759</v>
@@ -4199,7 +4199,7 @@
     </row>
     <row r="471">
       <c r="A471" t="n">
-        <v>22.49689674377441</v>
+        <v>22.56109237670898</v>
       </c>
       <c r="B471" t="n">
         <v>22.739</v>
@@ -4207,7 +4207,7 @@
     </row>
     <row r="472">
       <c r="A472" t="n">
-        <v>22.48097229003906</v>
+        <v>22.45866394042969</v>
       </c>
       <c r="B472" t="n">
         <v>22.758</v>
@@ -4215,7 +4215,7 @@
     </row>
     <row r="473">
       <c r="A473" t="n">
-        <v>22.43804931640625</v>
+        <v>22.43581008911133</v>
       </c>
       <c r="B473" t="n">
         <v>22.764</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="474">
       <c r="A474" t="n">
-        <v>22.36555480957031</v>
+        <v>22.51087379455566</v>
       </c>
       <c r="B474" t="n">
         <v>22.734</v>
@@ -4231,7 +4231,7 @@
     </row>
     <row r="475">
       <c r="A475" t="n">
-        <v>22.29210662841797</v>
+        <v>22.65420341491699</v>
       </c>
       <c r="B475" t="n">
         <v>22.702</v>
@@ -4239,7 +4239,7 @@
     </row>
     <row r="476">
       <c r="A476" t="n">
-        <v>22.2525749206543</v>
+        <v>22.80989074707031</v>
       </c>
       <c r="B476" t="n">
         <v>22.702</v>
@@ -4247,7 +4247,7 @@
     </row>
     <row r="477">
       <c r="A477" t="n">
-        <v>22.26876449584961</v>
+        <v>22.92155075073242</v>
       </c>
       <c r="B477" t="n">
         <v>22.736</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="478">
       <c r="A478" t="n">
-        <v>22.34003829956055</v>
+        <v>22.96699714660645</v>
       </c>
       <c r="B478" t="n">
         <v>22.764</v>
@@ -4263,7 +4263,7 @@
     </row>
     <row r="479">
       <c r="A479" t="n">
-        <v>22.40604209899902</v>
+        <v>22.95779991149902</v>
       </c>
       <c r="B479" t="n">
         <v>22.759</v>
@@ -4271,7 +4271,7 @@
     </row>
     <row r="480">
       <c r="A480" t="n">
-        <v>22.44783020019531</v>
+        <v>22.9208984375</v>
       </c>
       <c r="B480" t="n">
         <v>22.725</v>
@@ -4279,7 +4279,7 @@
     </row>
     <row r="481">
       <c r="A481" t="n">
-        <v>22.4511775970459</v>
+        <v>22.87739372253418</v>
       </c>
       <c r="B481" t="n">
         <v>22.678</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="482">
       <c r="A482" t="n">
-        <v>22.43504905700684</v>
+        <v>22.8425121307373</v>
       </c>
       <c r="B482" t="n">
         <v>22.641</v>
@@ -4295,7 +4295,7 @@
     </row>
     <row r="483">
       <c r="A483" t="n">
-        <v>22.44334411621094</v>
+        <v>22.8101863861084</v>
       </c>
       <c r="B483" t="n">
         <v>22.627</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="484">
       <c r="A484" t="n">
-        <v>22.47455596923828</v>
+        <v>22.76466941833496</v>
       </c>
       <c r="B484" t="n">
         <v>22.64</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="485">
       <c r="A485" t="n">
-        <v>22.50821876525879</v>
+        <v>22.70540428161621</v>
       </c>
       <c r="B485" t="n">
         <v>22.664</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="486">
       <c r="A486" t="n">
-        <v>22.5191822052002</v>
+        <v>22.64545059204102</v>
       </c>
       <c r="B486" t="n">
         <v>22.69</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="487">
       <c r="A487" t="n">
-        <v>22.50855445861816</v>
+        <v>22.6051197052002</v>
       </c>
       <c r="B487" t="n">
         <v>22.717</v>
@@ -4335,7 +4335,7 @@
     </row>
     <row r="488">
       <c r="A488" t="n">
-        <v>22.51303100585938</v>
+        <v>22.60025215148926</v>
       </c>
       <c r="B488" t="n">
         <v>22.743</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="489">
       <c r="A489" t="n">
-        <v>22.57224273681641</v>
+        <v>22.64177131652832</v>
       </c>
       <c r="B489" t="n">
         <v>22.77</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="490">
       <c r="A490" t="n">
-        <v>22.66775703430176</v>
+        <v>22.71473503112793</v>
       </c>
       <c r="B490" t="n">
         <v>22.768</v>
@@ -4359,7 +4359,7 @@
     </row>
     <row r="491">
       <c r="A491" t="n">
-        <v>22.72818565368652</v>
+        <v>22.79033660888672</v>
       </c>
       <c r="B491" t="n">
         <v>22.744</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="492">
       <c r="A492" t="n">
-        <v>22.70751190185547</v>
+        <v>22.84272193908691</v>
       </c>
       <c r="B492" t="n">
         <v>22.72</v>
@@ -4375,7 +4375,7 @@
     </row>
     <row r="493">
       <c r="A493" t="n">
-        <v>22.60834884643555</v>
+        <v>22.85938262939453</v>
       </c>
       <c r="B493" t="n">
         <v>22.701</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="494">
       <c r="A494" t="n">
-        <v>22.5117359161377</v>
+        <v>22.84394645690918</v>
       </c>
       <c r="B494" t="n">
         <v>22.691</v>
@@ -4391,7 +4391,7 @@
     </row>
     <row r="495">
       <c r="A495" t="n">
-        <v>22.50341606140137</v>
+        <v>22.81978988647461</v>
       </c>
       <c r="B495" t="n">
         <v>22.675</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="496">
       <c r="A496" t="n">
-        <v>22.57267951965332</v>
+        <v>22.80692100524902</v>
       </c>
       <c r="B496" t="n">
         <v>22.658</v>
@@ -4407,7 +4407,7 @@
     </row>
     <row r="497">
       <c r="A497" t="n">
-        <v>22.64687538146973</v>
+        <v>22.7999267578125</v>
       </c>
       <c r="B497" t="n">
         <v>22.657</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="498">
       <c r="A498" t="n">
-        <v>22.67138290405273</v>
+        <v>22.79190444946289</v>
       </c>
       <c r="B498" t="n">
         <v>22.668</v>
@@ -4423,7 +4423,7 @@
     </row>
     <row r="499">
       <c r="A499" t="n">
-        <v>22.63583755493164</v>
+        <v>22.79298782348633</v>
       </c>
       <c r="B499" t="n">
         <v>22.697</v>
@@ -4431,7 +4431,7 @@
     </row>
     <row r="500">
       <c r="A500" t="n">
-        <v>22.60727310180664</v>
+        <v>22.81812858581543</v>
       </c>
       <c r="B500" t="n">
         <v>22.74</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="501">
       <c r="A501" t="n">
-        <v>22.60821723937988</v>
+        <v>22.86336517333984</v>
       </c>
       <c r="B501" t="n">
         <v>22.775</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="502">
       <c r="A502" t="n">
-        <v>22.64431571960449</v>
+        <v>22.90678977966309</v>
       </c>
       <c r="B502" t="n">
         <v>22.792</v>
@@ -4455,7 +4455,7 @@
     </row>
     <row r="503">
       <c r="A503" t="n">
-        <v>22.69968605041504</v>
+        <v>22.92622947692871</v>
       </c>
       <c r="B503" t="n">
         <v>22.79</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="504">
       <c r="A504" t="n">
-        <v>22.74967193603516</v>
+        <v>22.91314888000488</v>
       </c>
       <c r="B504" t="n">
         <v>22.772</v>
@@ -4471,7 +4471,7 @@
     </row>
     <row r="505">
       <c r="A505" t="n">
-        <v>22.78910827636719</v>
+        <v>22.87702941894531</v>
       </c>
       <c r="B505" t="n">
         <v>22.738</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="506">
       <c r="A506" t="n">
-        <v>22.79221534729004</v>
+        <v>22.83490943908691</v>
       </c>
       <c r="B506" t="n">
         <v>22.713</v>
@@ -4487,7 +4487,7 @@
     </row>
     <row r="507">
       <c r="A507" t="n">
-        <v>22.77898788452148</v>
+        <v>22.7982063293457</v>
       </c>
       <c r="B507" t="n">
         <v>22.721</v>
@@ -4495,7 +4495,7 @@
     </row>
     <row r="508">
       <c r="A508" t="n">
-        <v>22.72846984863281</v>
+        <v>22.77917671203613</v>
       </c>
       <c r="B508" t="n">
         <v>22.747</v>
@@ -4503,7 +4503,7 @@
     </row>
     <row r="509">
       <c r="A509" t="n">
-        <v>22.63612365722656</v>
+        <v>22.78315353393555</v>
       </c>
       <c r="B509" t="n">
         <v>22.762</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="510">
       <c r="A510" t="n">
-        <v>22.54325675964355</v>
+        <v>22.79745483398438</v>
       </c>
       <c r="B510" t="n">
         <v>22.756</v>
@@ -4519,7 +4519,7 @@
     </row>
     <row r="511">
       <c r="A511" t="n">
-        <v>22.47111892700195</v>
+        <v>22.80089950561523</v>
       </c>
       <c r="B511" t="n">
         <v>22.739</v>
@@ -4527,7 +4527,7 @@
     </row>
     <row r="512">
       <c r="A512" t="n">
-        <v>22.44811630249023</v>
+        <v>22.77573394775391</v>
       </c>
       <c r="B512" t="n">
         <v>22.757</v>
@@ -4535,7 +4535,7 @@
     </row>
     <row r="513">
       <c r="A513" t="n">
-        <v>22.46806144714355</v>
+        <v>22.72959899902344</v>
       </c>
       <c r="B513" t="n">
         <v>22.81</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="514">
       <c r="A514" t="n">
-        <v>22.51117706298828</v>
+        <v>22.68512916564941</v>
       </c>
       <c r="B514" t="n">
         <v>22.872</v>
@@ -4551,7 +4551,7 @@
     </row>
     <row r="515">
       <c r="A515" t="n">
-        <v>22.56685638427734</v>
+        <v>22.66883850097656</v>
       </c>
       <c r="B515" t="n">
         <v>22.94</v>
@@ -4559,7 +4559,7 @@
     </row>
     <row r="516">
       <c r="A516" t="n">
-        <v>22.64505004882812</v>
+        <v>22.68505668640137</v>
       </c>
       <c r="B516" t="n">
         <v>22.976</v>
@@ -4567,7 +4567,7 @@
     </row>
     <row r="517">
       <c r="A517" t="n">
-        <v>22.69296073913574</v>
+        <v>22.68801307678223</v>
       </c>
       <c r="B517" t="n">
         <v>22.944</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="518">
       <c r="A518" t="n">
-        <v>22.69219589233398</v>
+        <v>22.6689338684082</v>
       </c>
       <c r="B518" t="n">
         <v>22.858</v>
@@ -4583,7 +4583,7 @@
     </row>
     <row r="519">
       <c r="A519" t="n">
-        <v>22.64602851867676</v>
+        <v>22.6519718170166</v>
       </c>
       <c r="B519" t="n">
         <v>22.778</v>
@@ -4591,7 +4591,7 @@
     </row>
     <row r="520">
       <c r="A520" t="n">
-        <v>22.60347938537598</v>
+        <v>22.66377067565918</v>
       </c>
       <c r="B520" t="n">
         <v>22.772</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="521">
       <c r="A521" t="n">
-        <v>22.60024833679199</v>
+        <v>22.70999526977539</v>
       </c>
       <c r="B521" t="n">
         <v>22.827</v>
